--- a/public/phieukiemke/kiemke.xlsx
+++ b/public/phieukiemke/kiemke.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quanlytaisan\public\phieukiemke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5174C805-A30F-40E7-91CD-D1B517A018D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD9464-F780-4067-8D9F-DB3838A21EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Đơn vị:Trung tâm Công nghệ thông tin và Truyền thông</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Chức vụ:</t>
+  </si>
+  <si>
+    <t>Theo sổ kế toán</t>
+  </si>
+  <si>
+    <t>Chênh lệch</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,16 +167,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -175,7 +187,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -201,20 +213,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -560,7 +581,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,10 +591,11 @@
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="11" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.109375" style="2"/>
     <col min="15" max="17" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.109375" style="2" bestFit="1" customWidth="1"/>
@@ -617,9 +639,9 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -641,9 +663,9 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -667,9 +689,9 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -693,9 +715,9 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -719,9 +741,9 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -743,9 +765,9 @@
         <v>12</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="11"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -760,17 +782,17 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="M14" s="12"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -780,8 +802,8 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -790,34 +812,56 @@
       <c r="C15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/public/phieukiemke/kiemke.xlsx
+++ b/public/phieukiemke/kiemke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quanlytaisan\public\phieukiemke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD9464-F780-4067-8D9F-DB3838A21EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B108AE57-FEEB-47B8-98AA-93789063D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Đơn vị:Trung tâm Công nghệ thông tin và Truyền thông</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Theo sổ kế toán</t>
-  </si>
-  <si>
-    <t>Chênh lệch</t>
   </si>
 </sst>
 </file>
@@ -219,6 +216,15 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,15 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -581,7 +578,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,9 +588,9 @@
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="15" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
     <col min="10" max="11" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.109375" style="2"/>
@@ -641,7 +638,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -665,7 +662,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -765,9 +762,9 @@
         <v>12</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="11"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -782,17 +779,17 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="M14" s="12"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -803,35 +800,31 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
@@ -844,24 +837,17 @@
       <c r="G16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="15"/>
+      <c r="H16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J15:J16"/>
+  <mergeCells count="7">
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/public/phieukiemke/kiemke.xlsx
+++ b/public/phieukiemke/kiemke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\quanlytaisan\public\phieukiemke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B108AE57-FEEB-47B8-98AA-93789063D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A879F-17AC-4D9F-99E9-B91A6C05D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,16 +164,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -184,7 +184,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -210,21 +210,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +233,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -575,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,9 +595,9 @@
     <col min="3" max="3" width="27" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13" style="13" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
     <col min="10" max="11" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.109375" style="2"/>
@@ -638,7 +645,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -662,7 +669,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -762,9 +769,9 @@
         <v>12</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="11"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -821,23 +828,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
